--- a/electricity-and-magnetism/3-6-1/data/3-6-1.xlsx
+++ b/electricity-and-magnetism/3-6-1/data/3-6-1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>50us</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t xml:space="preserve">Аосн, mV</t>
+  </si>
+  <si>
+    <t>k</t>
   </si>
 </sst>
 </file>
@@ -99,7 +102,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -118,8 +121,14 @@
         <bgColor theme="2" tint="-0.249977111117893"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -394,24 +403,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="49">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf fontId="0" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -451,15 +469,11 @@
     <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="10" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="11" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="13" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="11" numFmtId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -472,9 +486,6 @@
     <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf fontId="0" fillId="0" borderId="16" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -485,9 +496,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="2" borderId="12" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="2" borderId="3" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="10" numFmtId="0" xfId="0" applyBorder="1"/>
@@ -496,9 +504,6 @@
     <xf fontId="0" fillId="0" borderId="14" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="16" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="15" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf fontId="0" fillId="0" borderId="17" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -538,6 +543,13 @@
     <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf fontId="0" fillId="4" borderId="20" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="20" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="20" numFmtId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1045,7 +1057,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="B33" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A36" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1065,410 +1077,473 @@
     <row r="1" ht="14.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
     </row>
     <row r="2" ht="14.25">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="O2" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" ht="14.25">
-      <c r="B3" s="13">
+      <c r="B3" s="11">
         <v>40</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="12">
         <v>25</v>
       </c>
-      <c r="I3" s="15">
+      <c r="D3">
+        <f>1000/B3</f>
+        <v>25</v>
+      </c>
+      <c r="E3" s="12">
+        <v>25</v>
+      </c>
+      <c r="I3" s="13">
         <v>0</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="14">
         <v>0.040000000000000001</v>
       </c>
-      <c r="K3" s="17">
+      <c r="K3" s="15">
         <v>94.099999999999994</v>
       </c>
-      <c r="M3" s="15">
+      <c r="M3" s="13">
         <v>0</v>
       </c>
-      <c r="N3" s="16">
+      <c r="N3" s="14">
         <v>0.040000000000000001</v>
       </c>
-      <c r="O3" s="17">
+      <c r="O3" s="15">
         <v>142.69999999999999</v>
       </c>
     </row>
     <row r="4" ht="14.25">
-      <c r="B4" s="18">
+      <c r="B4" s="11">
         <v>60</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="12">
         <v>16</v>
       </c>
-      <c r="I4" s="18">
+      <c r="D4" s="16">
+        <f>1000/B4</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="E4" s="12">
+        <v>16</v>
+      </c>
+      <c r="I4" s="11">
         <v>1</v>
       </c>
-      <c r="J4" s="20">
+      <c r="J4" s="17">
         <v>1</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="12">
         <v>32.600000000000001</v>
       </c>
-      <c r="M4" s="18">
+      <c r="M4" s="11">
         <v>1</v>
       </c>
-      <c r="N4" s="20">
+      <c r="N4" s="17">
         <v>1</v>
       </c>
-      <c r="O4" s="19">
+      <c r="O4" s="12">
         <v>65.799999999999997</v>
       </c>
     </row>
     <row r="5" ht="14.25">
-      <c r="B5" s="18">
+      <c r="B5" s="11">
         <v>80</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="12">
         <v>13</v>
       </c>
-      <c r="I5" s="18">
+      <c r="D5" s="18">
+        <f>1000/B5</f>
+        <v>12.5</v>
+      </c>
+      <c r="E5" s="12">
+        <v>13</v>
+      </c>
+      <c r="I5" s="11">
         <v>2</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5" s="17">
         <v>2.04</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K5" s="12">
         <v>33.200000000000003</v>
       </c>
-      <c r="M5" s="18">
+      <c r="M5" s="11">
         <v>2</v>
       </c>
-      <c r="N5" s="20">
+      <c r="N5" s="17">
         <v>1.99</v>
       </c>
-      <c r="O5" s="19">
+      <c r="O5" s="12">
         <v>62.700000000000003</v>
       </c>
     </row>
     <row r="6" ht="14.25">
-      <c r="B6" s="18">
+      <c r="B6" s="11">
         <v>100</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="12">
         <v>10</v>
       </c>
-      <c r="I6" s="18">
+      <c r="D6" s="18">
+        <f>1000/B6</f>
+        <v>10</v>
+      </c>
+      <c r="E6" s="12">
+        <v>10</v>
+      </c>
+      <c r="I6" s="11">
         <v>3</v>
       </c>
-      <c r="J6" s="20">
+      <c r="J6" s="17">
         <v>2.9900000000000002</v>
       </c>
-      <c r="K6" s="19">
+      <c r="K6" s="12">
         <v>31.98</v>
       </c>
-      <c r="M6" s="18">
+      <c r="M6" s="11">
         <v>3</v>
       </c>
-      <c r="N6" s="20">
+      <c r="N6" s="17">
         <v>3</v>
       </c>
-      <c r="O6" s="19">
+      <c r="O6" s="12">
         <v>57.200000000000003</v>
       </c>
     </row>
     <row r="7" ht="14.25">
-      <c r="B7" s="18">
+      <c r="B7" s="11">
         <v>120</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="12">
         <v>8</v>
       </c>
-      <c r="I7" s="18">
+      <c r="D7" s="16">
+        <f>1000/B7</f>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="E7" s="12">
+        <v>8</v>
+      </c>
+      <c r="I7" s="11">
         <v>4</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7" s="17">
         <v>3.9900000000000002</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K7" s="12">
         <v>30.140000000000001</v>
       </c>
-      <c r="M7" s="18">
+      <c r="M7" s="11">
         <v>4</v>
       </c>
-      <c r="N7" s="20">
+      <c r="N7" s="17">
         <v>4</v>
       </c>
-      <c r="O7" s="19">
+      <c r="O7" s="12">
         <v>48.590000000000003</v>
       </c>
     </row>
     <row r="8" ht="14.25">
-      <c r="B8" s="18">
+      <c r="B8" s="11">
         <v>140</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="12">
         <v>7</v>
       </c>
-      <c r="I8" s="18">
+      <c r="D8" s="16">
+        <f>1000/B8</f>
+        <v>7.1428571428571432</v>
+      </c>
+      <c r="E8" s="12">
+        <v>7</v>
+      </c>
+      <c r="I8" s="11">
         <v>5</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="17">
         <v>4.9500000000000002</v>
       </c>
-      <c r="K8" s="19">
+      <c r="K8" s="12">
         <v>28.289999999999999</v>
       </c>
-      <c r="M8" s="18">
+      <c r="M8" s="11">
         <v>5</v>
       </c>
-      <c r="N8" s="20">
+      <c r="N8" s="17">
         <v>5</v>
       </c>
-      <c r="O8" s="19">
+      <c r="O8" s="12">
         <v>41.210000000000001</v>
       </c>
     </row>
     <row r="9" ht="14.25">
-      <c r="B9" s="18">
+      <c r="B9" s="11">
         <v>160</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="12">
         <v>6</v>
       </c>
-      <c r="I9" s="18">
+      <c r="D9" s="18">
+        <f>1000/B9</f>
+        <v>6.25</v>
+      </c>
+      <c r="E9" s="12">
         <v>6</v>
       </c>
-      <c r="J9" s="20">
+      <c r="I9" s="11">
+        <v>6</v>
+      </c>
+      <c r="J9" s="17">
         <v>6.0300000000000002</v>
       </c>
-      <c r="K9" s="19">
+      <c r="K9" s="12">
         <v>27</v>
       </c>
-      <c r="M9" s="18">
+      <c r="M9" s="11">
         <v>6</v>
       </c>
-      <c r="N9" s="20">
+      <c r="N9" s="17">
         <v>6</v>
       </c>
-      <c r="O9" s="19">
+      <c r="O9" s="12">
         <v>33.210000000000001</v>
       </c>
     </row>
     <row r="10" ht="14.25">
-      <c r="B10" s="18">
+      <c r="B10" s="11">
         <v>180</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="19">
         <v>5.5</v>
       </c>
-      <c r="I10" s="18">
+      <c r="D10" s="16">
+        <f>1000/B10</f>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="E10" s="19">
+        <v>5.5</v>
+      </c>
+      <c r="I10" s="11">
         <v>7</v>
       </c>
-      <c r="J10" s="20">
+      <c r="J10" s="17">
         <v>6.9900000000000002</v>
       </c>
-      <c r="K10" s="19">
+      <c r="K10" s="12">
         <v>25</v>
       </c>
-      <c r="M10" s="18">
+      <c r="M10" s="11">
         <v>7</v>
       </c>
-      <c r="N10" s="20">
+      <c r="N10" s="17">
         <v>7</v>
       </c>
-      <c r="O10" s="19">
+      <c r="O10" s="12">
         <v>22.739999999999998</v>
       </c>
     </row>
     <row r="11" ht="14.25">
-      <c r="B11" s="22">
+      <c r="B11" s="20">
         <v>200</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="21">
         <v>5</v>
       </c>
-      <c r="I11" s="18">
+      <c r="D11" s="18">
+        <f>1000/B11</f>
+        <v>5</v>
+      </c>
+      <c r="E11" s="21">
+        <v>5</v>
+      </c>
+      <c r="I11" s="11">
         <v>8</v>
       </c>
-      <c r="J11" s="20">
+      <c r="J11" s="17">
         <v>7.9000000000000004</v>
       </c>
-      <c r="K11" s="19">
+      <c r="K11" s="12">
         <v>22</v>
       </c>
-      <c r="M11" s="18">
+      <c r="M11" s="11">
         <v>8</v>
       </c>
-      <c r="N11" s="20">
+      <c r="N11" s="17">
         <v>8</v>
       </c>
-      <c r="O11" s="19">
+      <c r="O11" s="12">
         <v>14.15</v>
       </c>
     </row>
     <row r="12" ht="14.25">
-      <c r="I12" s="18">
+      <c r="I12" s="11">
         <v>9</v>
       </c>
-      <c r="J12" s="20">
+      <c r="J12" s="17">
         <v>9.0299999999999994</v>
       </c>
-      <c r="K12" s="19">
+      <c r="K12" s="12">
         <v>20.100000000000001</v>
       </c>
-      <c r="M12" s="18">
+      <c r="M12" s="11">
         <v>9</v>
       </c>
-      <c r="N12" s="20">
+      <c r="N12" s="17">
         <v>9</v>
       </c>
-      <c r="O12" s="19">
+      <c r="O12" s="12">
         <v>6.7699999999999996</v>
       </c>
     </row>
     <row r="13" ht="14.25">
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="I13" s="18">
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="I13" s="11">
         <v>10</v>
       </c>
-      <c r="J13" s="20">
+      <c r="J13" s="17">
         <v>10</v>
       </c>
-      <c r="K13" s="19">
+      <c r="K13" s="12">
         <v>19</v>
       </c>
-      <c r="M13" s="22">
+      <c r="M13" s="20">
         <v>10</v>
       </c>
-      <c r="N13" s="26">
+      <c r="N13" s="23">
         <v>10</v>
       </c>
-      <c r="O13" s="23">
+      <c r="O13" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="14" ht="14.25">
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="I14" s="18">
+      <c r="I14" s="11">
         <v>11</v>
       </c>
-      <c r="J14" s="20">
+      <c r="J14" s="17">
         <v>11</v>
       </c>
-      <c r="K14" s="19">
+      <c r="K14" s="12">
         <v>17.219999999999999</v>
       </c>
     </row>
     <row r="15" ht="14.25">
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="29" t="s">
+      <c r="F15" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="30" t="s">
+      <c r="G15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I15" s="11">
         <v>12</v>
       </c>
-      <c r="J15" s="20">
+      <c r="J15" s="17">
         <v>12</v>
       </c>
-      <c r="K15" s="19">
+      <c r="K15" s="12">
         <v>16.600000000000001</v>
       </c>
     </row>
     <row r="16" ht="14.25">
-      <c r="B16" s="15">
+      <c r="B16" s="13">
         <v>0.5</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="15">
         <v>0.5</v>
       </c>
-      <c r="E16" s="31"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="33"/>
-      <c r="I16" s="18">
+      <c r="E16" s="27"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="29"/>
+      <c r="I16" s="11">
         <v>13</v>
       </c>
-      <c r="J16" s="20">
+      <c r="J16" s="17">
         <v>13</v>
       </c>
-      <c r="K16" s="19">
+      <c r="K16" s="12">
         <v>14.15</v>
       </c>
     </row>
     <row r="17" ht="14.25">
-      <c r="B17" s="18">
+      <c r="B17" s="11">
         <v>1</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="12">
         <v>1</v>
       </c>
-      <c r="E17" s="34"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="36"/>
-      <c r="I17" s="18">
+      <c r="E17" s="30"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="32"/>
+      <c r="I17" s="11">
         <v>14</v>
       </c>
-      <c r="J17" s="20">
+      <c r="J17" s="17">
         <v>13.9</v>
       </c>
-      <c r="K17" s="19">
+      <c r="K17" s="12">
         <v>11.67</v>
       </c>
-      <c r="N17" s="37" t="s">
+      <c r="N17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
       <c r="R17" s="1" t="s">
         <v>7</v>
       </c>
@@ -1476,133 +1551,133 @@
       <c r="T17" s="1"/>
     </row>
     <row r="18" ht="14.25">
-      <c r="B18" s="18">
+      <c r="B18" s="11">
         <v>2</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="12">
         <v>2</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I18" s="11">
         <v>15</v>
       </c>
-      <c r="J18" s="20">
+      <c r="J18" s="17">
         <v>15</v>
       </c>
-      <c r="K18" s="19">
+      <c r="K18" s="12">
         <v>9.8399999999999999</v>
       </c>
-      <c r="N18" s="3" t="s">
+      <c r="N18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="R18" s="3" t="s">
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="R18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
     </row>
     <row r="19" ht="14.25">
-      <c r="B19" s="18">
+      <c r="B19" s="11">
         <v>4</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="12">
         <v>4</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I19" s="11">
         <v>16</v>
       </c>
-      <c r="J19" s="20">
+      <c r="J19" s="17">
         <v>16</v>
       </c>
-      <c r="K19" s="19">
+      <c r="K19" s="12">
         <v>7.3799999999999999</v>
       </c>
-      <c r="N19" s="10" t="s">
+      <c r="N19" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="O19" s="11" t="s">
+      <c r="O19" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="P19" s="12" t="s">
+      <c r="P19" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="R19" s="10" t="s">
+      <c r="R19" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="S19" s="11" t="s">
+      <c r="S19" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="T19" s="12" t="s">
+      <c r="T19" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="20" ht="14.25">
-      <c r="B20" s="22">
+      <c r="B20" s="20">
         <v>5</v>
       </c>
-      <c r="C20" s="23">
+      <c r="C20" s="21">
         <v>5</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I20" s="11">
         <v>17</v>
       </c>
-      <c r="J20" s="20">
+      <c r="J20" s="17">
         <v>17</v>
       </c>
-      <c r="K20" s="19">
+      <c r="K20" s="12">
         <v>5.5</v>
       </c>
       <c r="M20" t="s">
         <v>14</v>
       </c>
-      <c r="N20" s="15">
+      <c r="N20" s="13">
         <v>30</v>
       </c>
-      <c r="O20" s="16">
+      <c r="O20" s="14">
         <v>30</v>
       </c>
-      <c r="P20" s="17">
+      <c r="P20" s="15">
         <v>73</v>
       </c>
-      <c r="R20" s="15">
+      <c r="R20" s="13">
         <v>15</v>
       </c>
-      <c r="S20" s="16">
+      <c r="S20" s="14">
         <v>30</v>
       </c>
-      <c r="T20" s="17">
+      <c r="T20" s="15">
         <v>130</v>
       </c>
     </row>
     <row r="21" ht="14.25">
-      <c r="B21" s="38"/>
-      <c r="C21" s="39"/>
-      <c r="I21" s="22">
+      <c r="B21" s="33"/>
+      <c r="C21" s="34"/>
+      <c r="I21" s="20">
         <v>18</v>
       </c>
-      <c r="J21" s="26">
+      <c r="J21" s="23">
         <v>18</v>
       </c>
-      <c r="K21" s="23">
+      <c r="K21" s="21">
         <v>6.1500000000000004</v>
       </c>
-      <c r="N21" s="18">
+      <c r="N21" s="11">
         <v>31</v>
       </c>
-      <c r="O21" s="20">
+      <c r="O21" s="17">
         <v>31</v>
       </c>
-      <c r="P21" s="19">
+      <c r="P21" s="12">
         <v>55</v>
       </c>
-      <c r="R21" s="40">
+      <c r="R21" s="35">
         <v>31</v>
       </c>
-      <c r="S21" s="20">
+      <c r="S21" s="17">
         <v>32</v>
       </c>
-      <c r="T21" s="19">
+      <c r="T21" s="12">
         <v>105</v>
       </c>
       <c r="U21">
@@ -1610,367 +1685,485 @@
       </c>
     </row>
     <row r="22" ht="14.25">
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
       <c r="I22" s="1"/>
-      <c r="N22" s="15">
+      <c r="N22" s="13">
         <v>32</v>
       </c>
-      <c r="O22" s="20">
+      <c r="O22" s="17">
         <v>32</v>
       </c>
-      <c r="P22" s="19">
+      <c r="P22" s="12">
         <v>54</v>
       </c>
-      <c r="R22" s="15">
+      <c r="R22" s="13">
         <v>32</v>
       </c>
-      <c r="S22" s="16">
+      <c r="S22" s="14">
         <v>34</v>
       </c>
-      <c r="T22" s="19">
+      <c r="T22" s="12">
         <v>84</v>
       </c>
     </row>
     <row r="23" ht="14.25">
-      <c r="B23" s="18"/>
-      <c r="C23" s="19"/>
-      <c r="N23" s="18">
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="N23" s="11">
         <v>33</v>
       </c>
-      <c r="O23" s="20">
+      <c r="O23" s="17">
         <v>33</v>
       </c>
-      <c r="P23" s="19">
+      <c r="P23" s="12">
         <v>47.700000000000003</v>
       </c>
-      <c r="R23" s="40">
+      <c r="R23" s="35">
         <v>33</v>
       </c>
-      <c r="S23" s="20">
+      <c r="S23" s="17">
         <v>36</v>
       </c>
-      <c r="T23" s="19">
+      <c r="T23" s="12">
         <v>55</v>
       </c>
     </row>
     <row r="24" ht="14.25">
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
-      <c r="N24" s="15">
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="N24" s="13">
         <v>34</v>
       </c>
-      <c r="O24" s="20">
+      <c r="O24" s="17">
         <v>34</v>
       </c>
-      <c r="P24" s="19">
+      <c r="P24" s="12">
         <v>40</v>
       </c>
-      <c r="R24" s="15">
+      <c r="R24" s="13">
         <v>34</v>
       </c>
-      <c r="S24" s="16">
+      <c r="S24" s="14">
         <v>38</v>
       </c>
-      <c r="T24" s="19">
+      <c r="T24" s="12">
         <v>38</v>
       </c>
     </row>
     <row r="25" ht="14.25">
-      <c r="B25" s="22"/>
-      <c r="C25" s="23"/>
-      <c r="N25" s="18">
+      <c r="B25" s="20"/>
+      <c r="C25" s="21"/>
+      <c r="N25" s="11">
         <v>35</v>
       </c>
-      <c r="O25" s="20">
+      <c r="O25" s="17">
         <v>35</v>
       </c>
-      <c r="P25" s="19">
+      <c r="P25" s="12">
         <v>32.600000000000001</v>
       </c>
-      <c r="R25" s="40">
+      <c r="R25" s="35">
         <v>35</v>
       </c>
-      <c r="S25" s="20">
+      <c r="S25" s="17">
         <v>40</v>
       </c>
-      <c r="T25" s="19">
+      <c r="T25" s="12">
         <v>24</v>
       </c>
     </row>
     <row r="26" ht="14.25">
-      <c r="N26" s="15">
+      <c r="N26" s="13">
         <v>36</v>
       </c>
-      <c r="O26" s="20">
+      <c r="O26" s="17">
         <v>36</v>
       </c>
-      <c r="P26" s="19">
+      <c r="P26" s="12">
         <v>26.300000000000001</v>
       </c>
-      <c r="R26" s="15"/>
-      <c r="S26" s="16"/>
-      <c r="T26" s="19"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="12"/>
     </row>
     <row r="27" ht="14.25">
-      <c r="N27" s="18">
+      <c r="N27" s="11">
         <v>37</v>
       </c>
-      <c r="O27" s="20">
+      <c r="O27" s="17">
         <v>37</v>
       </c>
-      <c r="P27" s="19">
+      <c r="P27" s="12">
         <v>19</v>
       </c>
-      <c r="R27" s="40"/>
-      <c r="S27" s="20"/>
-      <c r="T27" s="19"/>
+      <c r="R27" s="35"/>
+      <c r="S27" s="17"/>
+      <c r="T27" s="12"/>
     </row>
     <row r="28" ht="14.25">
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="N28" s="15">
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="N28" s="13">
         <v>38</v>
       </c>
-      <c r="O28" s="20">
+      <c r="O28" s="17">
         <v>38</v>
       </c>
-      <c r="P28" s="19">
+      <c r="P28" s="12">
         <v>11</v>
       </c>
-      <c r="R28" s="15"/>
-      <c r="S28" s="16"/>
-      <c r="T28" s="19"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="12"/>
     </row>
     <row r="29" ht="14.25">
       <c r="C29" t="s">
         <v>16</v>
       </c>
-      <c r="N29" s="18">
+      <c r="N29" s="11">
         <v>39</v>
       </c>
-      <c r="O29" s="20">
+      <c r="O29" s="17">
         <v>39</v>
       </c>
-      <c r="P29" s="19">
+      <c r="P29" s="12">
         <v>5</v>
       </c>
-      <c r="R29" s="40"/>
-      <c r="S29" s="20"/>
-      <c r="T29" s="19"/>
+      <c r="R29" s="35"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="12"/>
     </row>
     <row r="30" ht="14.25">
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="42" t="s">
+      <c r="C30" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="42" t="s">
+      <c r="D30" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="43" t="s">
+      <c r="E30" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="N30" s="15">
+      <c r="N30" s="13">
         <v>40</v>
       </c>
-      <c r="O30" s="20">
+      <c r="O30" s="17">
         <v>40</v>
       </c>
-      <c r="P30" s="23">
+      <c r="P30" s="21">
         <v>1</v>
       </c>
-      <c r="R30" s="15"/>
-      <c r="S30" s="16"/>
-      <c r="T30" s="23"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="21"/>
     </row>
     <row r="31" ht="14.25">
-      <c r="B31" s="44">
+      <c r="B31" s="39">
         <v>0.20000000000000001</v>
       </c>
-      <c r="C31" s="45">
+      <c r="C31" s="40">
         <v>350</v>
       </c>
-      <c r="D31" s="45">
+      <c r="D31" s="40">
         <v>13</v>
       </c>
-      <c r="E31" s="46">
+      <c r="E31" s="41">
+        <f t="shared" ref="E31:E39" si="0">(C31-D31)/(C31+D31)</f>
+        <v>0.92837465564738297</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25">
+      <c r="B32" s="39">
+        <v>0.29999999999999999</v>
+      </c>
+      <c r="C32" s="40">
+        <v>350</v>
+      </c>
+      <c r="D32" s="40">
+        <v>37</v>
+      </c>
+      <c r="E32" s="41">
+        <f t="shared" si="0"/>
+        <v>0.80878552971576223</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25">
+      <c r="B33" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="C33" s="40">
+        <v>350</v>
+      </c>
+      <c r="D33" s="40">
+        <v>59</v>
+      </c>
+      <c r="E33" s="41">
+        <f t="shared" si="0"/>
+        <v>0.71149144254278729</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25">
+      <c r="B34" s="39">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="C34" s="40">
+        <v>350</v>
+      </c>
+      <c r="D34" s="40">
+        <v>84</v>
+      </c>
+      <c r="E34" s="41">
+        <f t="shared" si="0"/>
+        <v>0.61290322580645162</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25">
+      <c r="B35" s="39">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C35" s="40">
+        <v>350</v>
+      </c>
+      <c r="D35" s="40">
+        <v>108</v>
+      </c>
+      <c r="E35" s="41">
+        <f t="shared" si="0"/>
+        <v>0.52838427947598254</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25">
+      <c r="B36" s="39">
+        <v>1.3999999999999999</v>
+      </c>
+      <c r="C36" s="40">
+        <v>350</v>
+      </c>
+      <c r="D36" s="42">
+        <v>115</v>
+      </c>
+      <c r="E36" s="41">
+        <f t="shared" si="0"/>
+        <v>0.5053763440860215</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25">
+      <c r="B37" s="39">
+        <v>1.7</v>
+      </c>
+      <c r="C37" s="40">
+        <v>350</v>
+      </c>
+      <c r="D37" s="40">
+        <v>133</v>
+      </c>
+      <c r="E37" s="41">
+        <f t="shared" si="0"/>
+        <v>0.44927536231884058</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25">
+      <c r="B38" s="43">
+        <v>2</v>
+      </c>
+      <c r="C38" s="44">
+        <v>350</v>
+      </c>
+      <c r="D38" s="40">
+        <v>140</v>
+      </c>
+      <c r="E38" s="41">
+        <f t="shared" si="0"/>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25">
+      <c r="B39" s="42">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C39" s="40">
+        <v>350</v>
+      </c>
+      <c r="D39" s="44">
+        <v>160</v>
+      </c>
+      <c r="E39" s="41">
+        <f t="shared" si="0"/>
+        <v>0.37254901960784315</v>
+      </c>
+    </row>
+    <row r="42" ht="14.25">
+      <c r="B42" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="45" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" ht="14.25">
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+    </row>
+    <row r="44" ht="14.25">
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+    </row>
+    <row r="45" ht="14.25">
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+    </row>
+    <row r="46" ht="14.25">
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+    </row>
+    <row r="47" ht="14.25">
+      <c r="B47" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="D47" s="42"/>
+    </row>
+    <row r="48" ht="14.25">
+      <c r="B48" s="47">
         <f>(C31-D31)/(C31+D31)</f>
         <v>0.92837465564738297</v>
       </c>
-    </row>
-    <row r="32" ht="14.25">
-      <c r="B32" s="44">
-        <v>0.29999999999999999</v>
-      </c>
-      <c r="C32" s="45">
-        <v>350</v>
-      </c>
-      <c r="D32" s="45">
-        <v>37</v>
-      </c>
-      <c r="E32" s="46">
+      <c r="C48" s="47">
+        <f>D31/C31</f>
+        <v>0.037142857142857144</v>
+      </c>
+      <c r="D48" s="42"/>
+    </row>
+    <row r="49" ht="14.25">
+      <c r="B49" s="47">
         <f>(C32-D32)/(C32+D32)</f>
         <v>0.80878552971576223</v>
       </c>
-    </row>
-    <row r="33" ht="14.25">
-      <c r="B33" s="44">
-        <v>0.5</v>
-      </c>
-      <c r="C33" s="45">
-        <v>350</v>
-      </c>
-      <c r="D33" s="45">
-        <v>59</v>
-      </c>
-      <c r="E33" s="46">
+      <c r="C49" s="47">
+        <f>D32/C32</f>
+        <v>0.10571428571428572</v>
+      </c>
+      <c r="D49" s="42"/>
+    </row>
+    <row r="50" ht="14.25">
+      <c r="B50" s="47">
         <f>(C33-D33)/(C33+D33)</f>
         <v>0.71149144254278729</v>
       </c>
-    </row>
-    <row r="34" ht="14.25">
-      <c r="B34" s="44">
-        <v>0.80000000000000004</v>
-      </c>
-      <c r="C34" s="45">
-        <v>350</v>
-      </c>
-      <c r="D34" s="45">
-        <v>84</v>
-      </c>
-      <c r="E34" s="46">
+      <c r="C50" s="47">
+        <f>D33/C33</f>
+        <v>0.16857142857142857</v>
+      </c>
+    </row>
+    <row r="51" ht="14.25">
+      <c r="B51" s="47">
         <f>(C34-D34)/(C34+D34)</f>
         <v>0.61290322580645162</v>
       </c>
-    </row>
-    <row r="35" ht="14.25">
-      <c r="B35" s="44">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C35" s="45">
-        <v>350</v>
-      </c>
-      <c r="D35" s="45">
-        <v>108</v>
-      </c>
-      <c r="E35" s="46">
+      <c r="C51" s="47">
+        <f>D34/C34</f>
+        <v>0.23999999999999999</v>
+      </c>
+    </row>
+    <row r="52" ht="14.25">
+      <c r="B52" s="47">
         <f>(C35-D35)/(C35+D35)</f>
         <v>0.52838427947598254</v>
       </c>
-    </row>
-    <row r="36" ht="14.25">
-      <c r="B36" s="44">
-        <v>1.3999999999999999</v>
-      </c>
-      <c r="C36" s="45">
-        <v>350</v>
-      </c>
-      <c r="D36" s="47">
-        <v>115</v>
-      </c>
-      <c r="E36" s="46">
+      <c r="C52" s="47">
+        <f>D35/C35</f>
+        <v>0.30857142857142855</v>
+      </c>
+    </row>
+    <row r="53" ht="14.25">
+      <c r="B53" s="47">
         <f>(C36-D36)/(C36+D36)</f>
         <v>0.5053763440860215</v>
       </c>
-    </row>
-    <row r="37" ht="14.25">
-      <c r="B37" s="44">
-        <v>1.7</v>
-      </c>
-      <c r="C37" s="45">
-        <v>350</v>
-      </c>
-      <c r="D37" s="45">
-        <v>133</v>
-      </c>
-      <c r="E37" s="46">
+      <c r="C53" s="47">
+        <f>D36/C36</f>
+        <v>0.32857142857142857</v>
+      </c>
+    </row>
+    <row r="54" ht="14.25">
+      <c r="B54" s="47">
         <f>(C37-D37)/(C37+D37)</f>
         <v>0.44927536231884058</v>
       </c>
-    </row>
-    <row r="38" ht="14.25">
-      <c r="B38" s="48">
-        <v>2</v>
-      </c>
-      <c r="C38" s="49">
-        <v>350</v>
-      </c>
-      <c r="D38" s="45">
-        <v>140</v>
-      </c>
-      <c r="E38" s="46">
+      <c r="C54" s="47">
+        <f>D37/C37</f>
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="55" ht="14.25">
+      <c r="B55" s="47">
         <f>(C38-D38)/(C38+D38)</f>
         <v>0.42857142857142855</v>
       </c>
-    </row>
-    <row r="39" ht="14.25">
-      <c r="B39" s="47">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C39" s="45">
-        <v>350</v>
-      </c>
-      <c r="D39" s="49">
-        <v>160</v>
-      </c>
-      <c r="E39" s="46">
+      <c r="C55" s="47">
+        <f>D38/C38</f>
+        <v>0.40000000000000002</v>
+      </c>
+    </row>
+    <row r="56" ht="14.25">
+      <c r="B56" s="47">
         <f>(C39-D39)/(C39+D39)</f>
         <v>0.37254901960784315</v>
       </c>
-    </row>
-    <row r="42" ht="14.25">
-      <c r="B42" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="C42" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="D42" s="50" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" ht="14.25">
-      <c r="B43" s="47"/>
-      <c r="C43" s="47"/>
-      <c r="D43" s="47"/>
-    </row>
-    <row r="44" ht="14.25">
-      <c r="B44" s="47"/>
-      <c r="C44" s="47"/>
-      <c r="D44" s="47"/>
-    </row>
-    <row r="45" ht="14.25">
-      <c r="B45" s="47"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="47"/>
-    </row>
-    <row r="46" ht="14.25">
-      <c r="B46" s="47"/>
-      <c r="C46" s="47"/>
-      <c r="D46" s="47"/>
-    </row>
-    <row r="47" ht="14.25">
-      <c r="B47" s="47"/>
-      <c r="C47" s="47"/>
-      <c r="D47" s="47"/>
-    </row>
-    <row r="48" ht="14.25">
-      <c r="B48" s="47"/>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
-    </row>
-    <row r="49" ht="14.25">
-      <c r="B49" s="47"/>
-      <c r="C49" s="47"/>
-      <c r="D49" s="47"/>
+      <c r="C56" s="47">
+        <f>D39/C39</f>
+        <v>0.45714285714285713</v>
+      </c>
+    </row>
+    <row r="57" ht="14.25">
+      <c r="B57" s="47"/>
+      <c r="C57" s="48"/>
+    </row>
+    <row r="58" ht="14.25">
+      <c r="B58" s="47"/>
+      <c r="C58" s="48"/>
+    </row>
+    <row r="59" ht="14.25">
+      <c r="B59" s="48"/>
+      <c r="C59" s="48"/>
+    </row>
+    <row r="60" ht="14.25">
+      <c r="B60" s="48"/>
+      <c r="C60" s="48"/>
+    </row>
+    <row r="61" ht="14.25">
+      <c r="B61" s="48"/>
+      <c r="C61" s="48"/>
+    </row>
+    <row r="62" ht="14.25">
+      <c r="B62" s="48"/>
+      <c r="C62" s="48"/>
+    </row>
+    <row r="63" ht="14.25">
+      <c r="B63" s="48"/>
+      <c r="C63" s="48"/>
+    </row>
+    <row r="64" ht="14.25">
+      <c r="B64" s="48"/>
+      <c r="C64" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1987,7 +2180,7 @@
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/electricity-and-magnetism/3-6-1/data/3-6-1.xlsx
+++ b/electricity-and-magnetism/3-6-1/data/3-6-1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>50us</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A_m, mV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A_s, mV</t>
   </si>
 </sst>
 </file>
@@ -422,7 +428,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -549,6 +555,7 @@
     <xf fontId="0" fillId="0" borderId="20" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="20" numFmtId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1057,7 +1064,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="E37" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2040,6 +2047,18 @@
         <v>24</v>
       </c>
       <c r="D47" s="42"/>
+      <c r="E47" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G47" t="s">
+        <v>20</v>
+      </c>
+      <c r="H47" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="48" ht="14.25">
       <c r="B48" s="47">
@@ -2051,6 +2070,22 @@
         <v>0.037142857142857144</v>
       </c>
       <c r="D48" s="42"/>
+      <c r="E48">
+        <f>C31</f>
+        <v>350</v>
+      </c>
+      <c r="F48">
+        <f>D31</f>
+        <v>13</v>
+      </c>
+      <c r="G48" s="48">
+        <f>B48</f>
+        <v>0.92837465564738297</v>
+      </c>
+      <c r="H48" s="48">
+        <f>C48</f>
+        <v>0.037142857142857144</v>
+      </c>
     </row>
     <row r="49" ht="14.25">
       <c r="B49" s="47">
@@ -2062,6 +2097,22 @@
         <v>0.10571428571428572</v>
       </c>
       <c r="D49" s="42"/>
+      <c r="E49">
+        <f>C32</f>
+        <v>350</v>
+      </c>
+      <c r="F49">
+        <f>D32</f>
+        <v>37</v>
+      </c>
+      <c r="G49" s="48">
+        <f>B49</f>
+        <v>0.80878552971576223</v>
+      </c>
+      <c r="H49" s="48">
+        <f>C49</f>
+        <v>0.10571428571428572</v>
+      </c>
     </row>
     <row r="50" ht="14.25">
       <c r="B50" s="47">
@@ -2072,6 +2123,22 @@
         <f>D33/C33</f>
         <v>0.16857142857142857</v>
       </c>
+      <c r="E50">
+        <f>C33</f>
+        <v>350</v>
+      </c>
+      <c r="F50">
+        <f>D33</f>
+        <v>59</v>
+      </c>
+      <c r="G50" s="48">
+        <f>B50</f>
+        <v>0.71149144254278729</v>
+      </c>
+      <c r="H50" s="48">
+        <f>C50</f>
+        <v>0.16857142857142857</v>
+      </c>
     </row>
     <row r="51" ht="14.25">
       <c r="B51" s="47">
@@ -2082,6 +2149,22 @@
         <f>D34/C34</f>
         <v>0.23999999999999999</v>
       </c>
+      <c r="E51">
+        <f>C34</f>
+        <v>350</v>
+      </c>
+      <c r="F51">
+        <f>D34</f>
+        <v>84</v>
+      </c>
+      <c r="G51" s="48">
+        <f>B51</f>
+        <v>0.61290322580645162</v>
+      </c>
+      <c r="H51">
+        <f>C51</f>
+        <v>0.23999999999999999</v>
+      </c>
     </row>
     <row r="52" ht="14.25">
       <c r="B52" s="47">
@@ -2092,6 +2175,22 @@
         <f>D35/C35</f>
         <v>0.30857142857142855</v>
       </c>
+      <c r="E52">
+        <f>C35</f>
+        <v>350</v>
+      </c>
+      <c r="F52">
+        <f>D35</f>
+        <v>108</v>
+      </c>
+      <c r="G52" s="48">
+        <f>B52</f>
+        <v>0.52838427947598254</v>
+      </c>
+      <c r="H52" s="48">
+        <f>C52</f>
+        <v>0.30857142857142855</v>
+      </c>
     </row>
     <row r="53" ht="14.25">
       <c r="B53" s="47">
@@ -2102,6 +2201,22 @@
         <f>D36/C36</f>
         <v>0.32857142857142857</v>
       </c>
+      <c r="E53">
+        <f>C36</f>
+        <v>350</v>
+      </c>
+      <c r="F53">
+        <f>D36</f>
+        <v>115</v>
+      </c>
+      <c r="G53" s="48">
+        <f>B53</f>
+        <v>0.5053763440860215</v>
+      </c>
+      <c r="H53" s="48">
+        <f>C53</f>
+        <v>0.32857142857142857</v>
+      </c>
     </row>
     <row r="54" ht="14.25">
       <c r="B54" s="47">
@@ -2112,6 +2227,22 @@
         <f>D37/C37</f>
         <v>0.38</v>
       </c>
+      <c r="E54">
+        <f>C37</f>
+        <v>350</v>
+      </c>
+      <c r="F54">
+        <f>D37</f>
+        <v>133</v>
+      </c>
+      <c r="G54" s="48">
+        <f>B54</f>
+        <v>0.44927536231884058</v>
+      </c>
+      <c r="H54">
+        <f>C54</f>
+        <v>0.38</v>
+      </c>
     </row>
     <row r="55" ht="14.25">
       <c r="B55" s="47">
@@ -2122,6 +2253,22 @@
         <f>D38/C38</f>
         <v>0.40000000000000002</v>
       </c>
+      <c r="E55">
+        <f>C38</f>
+        <v>350</v>
+      </c>
+      <c r="F55">
+        <f>D38</f>
+        <v>140</v>
+      </c>
+      <c r="G55" s="48">
+        <f>B55</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="H55">
+        <f>C55</f>
+        <v>0.40000000000000002</v>
+      </c>
     </row>
     <row r="56" ht="14.25">
       <c r="B56" s="47">
@@ -2132,38 +2279,54 @@
         <f>D39/C39</f>
         <v>0.45714285714285713</v>
       </c>
+      <c r="E56">
+        <f>C39</f>
+        <v>350</v>
+      </c>
+      <c r="F56">
+        <f>D39</f>
+        <v>160</v>
+      </c>
+      <c r="G56" s="48">
+        <f>B56</f>
+        <v>0.37254901960784315</v>
+      </c>
+      <c r="H56" s="48">
+        <f>C56</f>
+        <v>0.45714285714285713</v>
+      </c>
     </row>
     <row r="57" ht="14.25">
       <c r="B57" s="47"/>
-      <c r="C57" s="48"/>
+      <c r="C57" s="49"/>
     </row>
     <row r="58" ht="14.25">
       <c r="B58" s="47"/>
-      <c r="C58" s="48"/>
+      <c r="C58" s="49"/>
     </row>
     <row r="59" ht="14.25">
-      <c r="B59" s="48"/>
-      <c r="C59" s="48"/>
+      <c r="B59" s="49"/>
+      <c r="C59" s="49"/>
     </row>
     <row r="60" ht="14.25">
-      <c r="B60" s="48"/>
-      <c r="C60" s="48"/>
+      <c r="B60" s="49"/>
+      <c r="C60" s="49"/>
     </row>
     <row r="61" ht="14.25">
-      <c r="B61" s="48"/>
-      <c r="C61" s="48"/>
+      <c r="B61" s="49"/>
+      <c r="C61" s="49"/>
     </row>
     <row r="62" ht="14.25">
-      <c r="B62" s="48"/>
-      <c r="C62" s="48"/>
+      <c r="B62" s="49"/>
+      <c r="C62" s="49"/>
     </row>
     <row r="63" ht="14.25">
-      <c r="B63" s="48"/>
-      <c r="C63" s="48"/>
+      <c r="B63" s="49"/>
+      <c r="C63" s="49"/>
     </row>
     <row r="64" ht="14.25">
-      <c r="B64" s="48"/>
-      <c r="C64" s="48"/>
+      <c r="B64" s="49"/>
+      <c r="C64" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="10">
